--- a/04_test_results/CVRP_results.xlsx
+++ b/04_test_results/CVRP_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kude-my.sharepoint.com/personal/dennis_goetz_stud_ku_de/Documents/Dokumente/03_Master/07_Masterarbeit/05_Code/02_github/04_test_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_61E2F91280195AB1E2C9F9413E9E3F9AA7320298" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{208E6B25-DEDD-4CBE-ADB2-5AB46ED1B7AB}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_5A065B0380195A41E33CD2C410A8BFDC34510082" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A2F9BCB-4FA4-4C4B-BE2D-57B2709D9C91}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="run_times" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t>KNN</t>
   </si>
@@ -47,22 +47,19 @@
     <t>CV times</t>
   </si>
   <si>
-    <t>36s</t>
-  </si>
-  <si>
-    <t>47s</t>
-  </si>
-  <si>
-    <t>8m, 40s</t>
-  </si>
-  <si>
-    <t>29s</t>
-  </si>
-  <si>
-    <t>15m, 58s</t>
-  </si>
-  <si>
-    <t>8m, 7s</t>
+    <t>21s</t>
+  </si>
+  <si>
+    <t>29m, 40s</t>
+  </si>
+  <si>
+    <t>4m, 1s</t>
+  </si>
+  <si>
+    <t>9m, 10s</t>
+  </si>
+  <si>
+    <t>3m, 29s</t>
   </si>
   <si>
     <t>Fit times</t>
@@ -71,31 +68,37 @@
     <t>0s</t>
   </si>
   <si>
-    <t>4m, 56s</t>
-  </si>
-  <si>
-    <t>13s</t>
-  </si>
-  <si>
-    <t>50m, 53s</t>
-  </si>
-  <si>
-    <t>24m, 33s</t>
+    <t>12m, 11s</t>
+  </si>
+  <si>
+    <t>2m, 41s</t>
+  </si>
+  <si>
+    <t>6s</t>
+  </si>
+  <si>
+    <t>15m, 11s</t>
+  </si>
+  <si>
+    <t>10m, 17s</t>
   </si>
   <si>
     <t>Prediction times</t>
   </si>
   <si>
-    <t>3s</t>
-  </si>
-  <si>
-    <t>2m, 47s</t>
-  </si>
-  <si>
-    <t>Train Set</t>
-  </si>
-  <si>
-    <t>Test Set</t>
+    <t>1s</t>
+  </si>
+  <si>
+    <t>2s</t>
+  </si>
+  <si>
+    <t>50s</t>
+  </si>
+  <si>
+    <t>Train set</t>
+  </si>
+  <si>
+    <t>Test set</t>
   </si>
   <si>
     <t>Mean</t>
@@ -463,15 +466,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -507,24 +506,24 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -547,19 +546,19 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -571,16 +570,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -591,13 +588,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -605,48 +602,48 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>4.3600000000000003</v>
+        <v>4.38</v>
       </c>
       <c r="C2">
-        <v>5.1100000000000003</v>
+        <v>5.04</v>
       </c>
       <c r="D2">
-        <v>5.74</v>
+        <v>5.6000000000000014</v>
       </c>
       <c r="E2">
-        <v>7.73</v>
+        <v>5.71</v>
       </c>
       <c r="F2">
-        <v>11.53</v>
+        <v>7.7</v>
       </c>
       <c r="G2">
-        <v>23.87</v>
+        <v>22.93</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>4.0999999999999996</v>
+        <v>4.17</v>
       </c>
       <c r="C3">
-        <v>4.83</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="D3">
-        <v>5.48</v>
+        <v>5.0299999999999994</v>
       </c>
       <c r="E3">
-        <v>7.47</v>
+        <v>5.43</v>
       </c>
       <c r="F3">
-        <v>11.31</v>
+        <v>7.46</v>
       </c>
       <c r="G3">
-        <v>22.91</v>
+        <v>21.93</v>
       </c>
     </row>
   </sheetData>
@@ -659,15 +656,16 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -678,13 +676,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -692,48 +690,48 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>1.9258</v>
+        <v>1.98</v>
       </c>
       <c r="C2">
-        <v>2.1371000000000002</v>
+        <v>2.12</v>
       </c>
       <c r="D2">
-        <v>2.5291000000000001</v>
+        <v>2.31</v>
       </c>
       <c r="E2">
-        <v>3.7768999999999999</v>
+        <v>2.52</v>
       </c>
       <c r="F2">
-        <v>4.2847999999999997</v>
+        <v>3.62</v>
       </c>
       <c r="G2">
-        <v>7.0964</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>1.8351999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="C3">
-        <v>2.0303</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>2.4182000000000001</v>
+        <v>2.09</v>
       </c>
       <c r="E3">
-        <v>3.5304000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="F3">
-        <v>3.9533</v>
+        <v>3.48</v>
       </c>
       <c r="G3">
-        <v>6.7961</v>
+        <v>6.56</v>
       </c>
     </row>
   </sheetData>
@@ -745,9 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -780,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -788,31 +784,31 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>3.5</v>
+        <v>3.330000000000001</v>
       </c>
       <c r="C2">
-        <v>3.4</v>
+        <v>3.64</v>
       </c>
       <c r="D2">
-        <v>3.74</v>
+        <v>3.81</v>
       </c>
       <c r="E2">
-        <v>4.1900000000000004</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="F2">
-        <v>4.04</v>
+        <v>4.1300000000000008</v>
       </c>
       <c r="G2">
-        <v>4.1399999999999997</v>
+        <v>4.3</v>
       </c>
       <c r="H2">
-        <v>4.25</v>
+        <v>4.3999999999999986</v>
       </c>
       <c r="I2">
-        <v>4.6900000000000004</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="J2">
-        <v>4.0999999999999996</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -820,127 +816,127 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>4.66</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="C3">
-        <v>4.38</v>
+        <v>4.3999999999999986</v>
       </c>
       <c r="D3">
-        <v>4.51</v>
+        <v>4.3900000000000006</v>
       </c>
       <c r="E3">
-        <v>4.6900000000000004</v>
+        <v>4.58</v>
       </c>
       <c r="F3">
-        <v>4.67</v>
+        <v>4.5699999999999994</v>
       </c>
       <c r="G3">
-        <v>4.82</v>
+        <v>4.75</v>
       </c>
       <c r="H3">
-        <v>4.8</v>
+        <v>4.71</v>
       </c>
       <c r="I3">
-        <v>5.55</v>
+        <v>5.3199999999999994</v>
       </c>
       <c r="J3">
-        <v>4.83</v>
+        <v>4.7300000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>5.65</v>
+        <v>6.11</v>
       </c>
       <c r="C4">
+        <v>4.75</v>
+      </c>
+      <c r="D4">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="E4">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="F4">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="G4">
         <v>4.96</v>
       </c>
-      <c r="D4">
-        <v>5.33</v>
-      </c>
-      <c r="E4">
-        <v>5.38</v>
-      </c>
-      <c r="F4">
-        <v>5.25</v>
-      </c>
-      <c r="G4">
-        <v>5.68</v>
-      </c>
       <c r="H4">
-        <v>5.47</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="I4">
-        <v>5.85</v>
+        <v>5.28</v>
       </c>
       <c r="J4">
-        <v>5.48</v>
+        <v>5.0299999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>7.77</v>
+        <v>5.75</v>
       </c>
       <c r="C5">
-        <v>7.06</v>
+        <v>4.99</v>
       </c>
       <c r="D5">
-        <v>7.19</v>
+        <v>5.17</v>
       </c>
       <c r="E5">
-        <v>7.44</v>
+        <v>5.3900000000000006</v>
       </c>
       <c r="F5">
-        <v>7.16</v>
+        <v>5.2200000000000006</v>
       </c>
       <c r="G5">
-        <v>7.62</v>
+        <v>5.63</v>
       </c>
       <c r="H5">
-        <v>7.72</v>
+        <v>5.46</v>
       </c>
       <c r="I5">
-        <v>7.64</v>
+        <v>5.69</v>
       </c>
       <c r="J5">
-        <v>7.47</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>13.35</v>
+        <v>7.77</v>
       </c>
       <c r="C6">
-        <v>10.58</v>
+        <v>6.77</v>
       </c>
       <c r="D6">
-        <v>9.76</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="E6">
-        <v>11.14</v>
+        <v>7.580000000000001</v>
       </c>
       <c r="F6">
-        <v>10.220000000000001</v>
+        <v>7.24</v>
       </c>
       <c r="G6">
-        <v>9.42</v>
+        <v>7.3800000000000008</v>
       </c>
       <c r="H6">
-        <v>11.65</v>
+        <v>7.7</v>
       </c>
       <c r="I6">
-        <v>13.93</v>
+        <v>7.76</v>
       </c>
       <c r="J6">
-        <v>11.31</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -948,31 +944,31 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>33.58</v>
+        <v>32.1</v>
       </c>
       <c r="C7">
-        <v>22.91</v>
+        <v>22.27</v>
       </c>
       <c r="D7">
-        <v>22.58</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>26.07</v>
+        <v>24.47</v>
       </c>
       <c r="F7">
-        <v>20.66</v>
+        <v>19.57</v>
       </c>
       <c r="G7">
-        <v>20.46</v>
+        <v>19.66</v>
       </c>
       <c r="H7">
-        <v>21.43</v>
+        <v>20.56</v>
       </c>
       <c r="I7">
-        <v>21.61</v>
+        <v>20.69</v>
       </c>
       <c r="J7">
-        <v>22.91</v>
+        <v>21.93</v>
       </c>
     </row>
   </sheetData>
@@ -984,13 +980,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1019,7 +1013,7 @@
         <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1027,31 +1021,31 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1.6039000000000001</v>
+        <v>1.58</v>
       </c>
       <c r="C2">
-        <v>1.8048999999999999</v>
+        <v>1.92</v>
       </c>
       <c r="D2">
-        <v>1.7477</v>
+        <v>1.8</v>
       </c>
       <c r="E2">
-        <v>1.8115000000000001</v>
+        <v>1.84</v>
       </c>
       <c r="F2">
-        <v>1.8857999999999999</v>
+        <v>1.94</v>
       </c>
       <c r="G2">
-        <v>1.847</v>
+        <v>1.92</v>
       </c>
       <c r="H2">
-        <v>1.8635999999999999</v>
+        <v>1.94</v>
       </c>
       <c r="I2">
-        <v>1.9292</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="J2">
-        <v>1.8351999999999999</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1059,127 +1053,127 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2.004</v>
+        <v>1.99</v>
       </c>
       <c r="C3">
-        <v>2.1692999999999998</v>
+        <v>2.16</v>
       </c>
       <c r="D3">
-        <v>2.0405000000000002</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E3">
-        <v>1.9371</v>
+        <v>1.91</v>
       </c>
       <c r="F3">
-        <v>2.0023</v>
+        <v>1.98</v>
       </c>
       <c r="G3">
-        <v>1.9855</v>
+        <v>1.96</v>
       </c>
       <c r="H3">
-        <v>2.0110000000000001</v>
+        <v>1.98</v>
       </c>
       <c r="I3">
-        <v>2.0983999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="J3">
-        <v>2.0303</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>2.4205999999999999</v>
+        <v>2.08</v>
       </c>
       <c r="C4">
-        <v>2.5021</v>
+        <v>2.23</v>
       </c>
       <c r="D4">
-        <v>2.4527000000000001</v>
+        <v>2.15</v>
       </c>
       <c r="E4">
-        <v>2.4085999999999999</v>
+        <v>1.99</v>
       </c>
       <c r="F4">
-        <v>2.4289999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="G4">
-        <v>2.4563999999999999</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>2.3831000000000002</v>
+        <v>2.12</v>
       </c>
       <c r="I4">
-        <v>2.3517999999999999</v>
+        <v>2.14</v>
       </c>
       <c r="J4">
-        <v>2.4182000000000001</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>3.6518999999999999</v>
+        <v>2.39</v>
       </c>
       <c r="C5">
-        <v>3.6556999999999999</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="D5">
-        <v>3.5493000000000001</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="E5">
-        <v>3.5451000000000001</v>
+        <v>2.41</v>
       </c>
       <c r="F5">
-        <v>3.3795999999999999</v>
+        <v>2.39</v>
       </c>
       <c r="G5">
-        <v>3.6120999999999999</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="H5">
-        <v>3.4889999999999999</v>
+        <v>2.38</v>
       </c>
       <c r="I5">
-        <v>3.4735999999999998</v>
+        <v>2.33</v>
       </c>
       <c r="J5">
-        <v>3.5304000000000002</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>4.6414999999999997</v>
+        <v>3.64</v>
       </c>
       <c r="C6">
-        <v>4.2274000000000003</v>
+        <v>3.54</v>
       </c>
       <c r="D6">
-        <v>3.6677</v>
+        <v>3.52</v>
       </c>
       <c r="E6">
-        <v>3.6918000000000002</v>
+        <v>3.51</v>
       </c>
       <c r="F6">
-        <v>3.7328999999999999</v>
+        <v>3.41</v>
       </c>
       <c r="G6">
-        <v>3.4607000000000001</v>
+        <v>3.49</v>
       </c>
       <c r="H6">
-        <v>3.8109999999999999</v>
+        <v>3.45</v>
       </c>
       <c r="I6">
-        <v>4.4691999999999998</v>
+        <v>3.41</v>
       </c>
       <c r="J6">
-        <v>3.9533</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1187,31 +1181,31 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>8.8402999999999992</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="C7">
-        <v>7.8163</v>
+        <v>7.43</v>
       </c>
       <c r="D7">
-        <v>6.8141999999999996</v>
+        <v>6.7</v>
       </c>
       <c r="E7">
-        <v>6.6346999999999996</v>
+        <v>6.36</v>
       </c>
       <c r="F7">
-        <v>6.4734999999999996</v>
+        <v>6.3</v>
       </c>
       <c r="G7">
-        <v>6.5038999999999998</v>
+        <v>6.34</v>
       </c>
       <c r="H7">
-        <v>6.2755000000000001</v>
+        <v>6.13</v>
       </c>
       <c r="I7">
-        <v>6.2770999999999999</v>
+        <v>6.07</v>
       </c>
       <c r="J7">
-        <v>6.7961</v>
+        <v>6.56</v>
       </c>
     </row>
   </sheetData>
